--- a/hw1/Results/EM_Model1.xlsx
+++ b/hw1/Results/EM_Model1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>number</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Symmetrization Recall</t>
+  </si>
+  <si>
+    <t>Stemmed</t>
   </si>
 </sst>
 </file>
@@ -133,8 +136,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -146,13 +155,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -482,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -494,7 +509,12 @@
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:7">
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -513,8 +533,11 @@
       <c r="F2" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -533,8 +556,11 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -553,8 +579,11 @@
       <c r="F4">
         <v>0.36379299999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0.36376999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -573,8 +602,11 @@
       <c r="F5">
         <v>0.82231399999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0.68915000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -593,8 +625,11 @@
       <c r="F6">
         <v>0.50295900000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0.58284000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -613,8 +648,11 @@
       <c r="F7">
         <v>0.28592000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0.29183999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -633,8 +671,11 @@
       <c r="F8">
         <v>0.75977700000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0.72987000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -653,8 +694,11 @@
       <c r="F9">
         <v>0.66568000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0.68343200000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -673,8 +717,11 @@
       <c r="F10">
         <v>0.26785700000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0.27994999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -693,8 +740,11 @@
       <c r="F11">
         <v>0.75897400000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0.69890099999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -713,8 +763,11 @@
       <c r="F12">
         <v>0.701183</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0.74852099999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -733,8 +786,11 @@
       <c r="F13">
         <v>0.39233600000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>0.387521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -753,8 +809,11 @@
       <c r="F14">
         <v>0.83333299999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>0.73062700000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -773,29 +832,41 @@
       <c r="F15">
         <v>0.46745599999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0.51775099999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="F16">
         <v>0.36458299999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>0.36376999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="F17">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0.68915000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="F18">
         <v>0.82773099999999999</v>
+      </c>
+      <c r="G18">
+        <v>0.58284000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/hw1/Results/EM_Model1.xlsx
+++ b/hw1/Results/EM_Model1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10640" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>number</t>
   </si>
@@ -88,6 +88,39 @@
   </si>
   <si>
     <t>Stemmed</t>
+  </si>
+  <si>
+    <t>Precision = 0.667838</t>
+  </si>
+  <si>
+    <t>Recall = 0.860947</t>
+  </si>
+  <si>
+    <t>AER = 0.260198</t>
+  </si>
+  <si>
+    <t>Union of Stemmed and Unstemmed unions - no null</t>
+  </si>
+  <si>
+    <t>Union of Stemmed and Unstemmed Intersections - no null</t>
+  </si>
+  <si>
+    <t>Precision = 0.762148</t>
+  </si>
+  <si>
+    <t>Recall = 0.715976</t>
+  </si>
+  <si>
+    <t>AER = 0.259259</t>
+  </si>
+  <si>
+    <t>Precision = 0.692884</t>
+  </si>
+  <si>
+    <t>Recall = 0.846154</t>
+  </si>
+  <si>
+    <t>AER = 0.247706</t>
   </si>
 </sst>
 </file>
@@ -497,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -509,12 +542,12 @@
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="G1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -536,8 +569,11 @@
       <c r="G2" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -559,8 +595,11 @@
       <c r="G3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -582,8 +621,11 @@
       <c r="G4">
         <v>0.36376999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -605,8 +647,11 @@
       <c r="G5">
         <v>0.68915000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -629,7 +674,7 @@
         <v>0.58284000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -651,8 +696,11 @@
       <c r="G7">
         <v>0.29183999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -674,8 +722,11 @@
       <c r="G8">
         <v>0.72987000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -697,8 +748,11 @@
       <c r="G9">
         <v>0.68343200000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -720,8 +774,11 @@
       <c r="G10">
         <v>0.27994999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -744,7 +801,7 @@
         <v>0.69890099999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -766,8 +823,11 @@
       <c r="G12">
         <v>0.74852099999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -789,8 +849,11 @@
       <c r="G13">
         <v>0.387521</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -812,8 +875,11 @@
       <c r="G14">
         <v>0.73062700000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -835,8 +901,11 @@
       <c r="G15">
         <v>0.51775099999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>19</v>
       </c>
